--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Ror2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Ror2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H2">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I2">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J2">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1389836666666667</v>
+        <v>0.028814</v>
       </c>
       <c r="N2">
-        <v>0.416951</v>
+        <v>0.086442</v>
       </c>
       <c r="O2">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="P2">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="Q2">
-        <v>0.005893139106111111</v>
+        <v>0.252843022884</v>
       </c>
       <c r="R2">
-        <v>0.053038251955</v>
+        <v>2.275587205956</v>
       </c>
       <c r="S2">
-        <v>8.329130636350272E-05</v>
+        <v>0.003677944862401768</v>
       </c>
       <c r="T2">
-        <v>8.329130636350271E-05</v>
+        <v>0.003677944862401768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H3">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I3">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J3">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>22.132767</v>
       </c>
       <c r="O3">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340737</v>
       </c>
       <c r="P3">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340736</v>
       </c>
       <c r="Q3">
-        <v>0.3128220695816666</v>
+        <v>64.73838774053399</v>
       </c>
       <c r="R3">
-        <v>2.815398626235</v>
+        <v>582.6454896648061</v>
       </c>
       <c r="S3">
-        <v>0.004421303886713363</v>
+        <v>0.9417076962400847</v>
       </c>
       <c r="T3">
-        <v>0.004421303886713362</v>
+        <v>0.9417076962400847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H4">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I4">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J4">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3891763333333333</v>
+        <v>0.3656536666666667</v>
       </c>
       <c r="N4">
-        <v>1.167529</v>
+        <v>1.096961</v>
       </c>
       <c r="O4">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="P4">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="Q4">
-        <v>0.01650172516055555</v>
+        <v>3.208613118922</v>
       </c>
       <c r="R4">
-        <v>0.148515526445</v>
+        <v>28.877518070298</v>
       </c>
       <c r="S4">
-        <v>0.0002332288821163014</v>
+        <v>0.04667363173231885</v>
       </c>
       <c r="T4">
-        <v>0.0002332288821163013</v>
+        <v>0.04667363173231885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H5">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I5">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J5">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1389836666666667</v>
+        <v>0.028814</v>
       </c>
       <c r="N5">
-        <v>0.416951</v>
+        <v>0.086442</v>
       </c>
       <c r="O5">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="P5">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="Q5">
-        <v>1.219582508902</v>
+        <v>0.002023828127333334</v>
       </c>
       <c r="R5">
-        <v>10.976242580118</v>
+        <v>0.018214453146</v>
       </c>
       <c r="S5">
-        <v>0.01723709869315454</v>
+        <v>2.943932633935003E-05</v>
       </c>
       <c r="T5">
-        <v>0.01723709869315454</v>
+        <v>2.943932633935004E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H6">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>22.132767</v>
       </c>
       <c r="O6">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340737</v>
       </c>
       <c r="P6">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340736</v>
       </c>
       <c r="Q6">
-        <v>64.73838774053399</v>
+        <v>0.5181846369856667</v>
       </c>
       <c r="R6">
-        <v>582.6454896648061</v>
+        <v>4.663661732871001</v>
       </c>
       <c r="S6">
-        <v>0.9149868668778681</v>
+        <v>0.007537698693989001</v>
       </c>
       <c r="T6">
-        <v>0.9149868668778681</v>
+        <v>0.007537698693989002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +829,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.07023766666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.210713</v>
+      </c>
+      <c r="I7">
+        <v>0.007940727165194733</v>
+      </c>
+      <c r="J7">
+        <v>0.007940727165194734</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>8.775005999999999</v>
-      </c>
-      <c r="H7">
-        <v>26.325018</v>
-      </c>
-      <c r="I7">
-        <v>0.9804905786745289</v>
-      </c>
-      <c r="J7">
-        <v>0.9804905786745289</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3891763333333333</v>
+        <v>0.3656536666666667</v>
       </c>
       <c r="N7">
-        <v>1.167529</v>
+        <v>1.096961</v>
       </c>
       <c r="O7">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="P7">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="Q7">
-        <v>3.415024660058</v>
+        <v>0.02568266035477778</v>
       </c>
       <c r="R7">
-        <v>30.735221940522</v>
+        <v>0.231143943193</v>
       </c>
       <c r="S7">
-        <v>0.04826661310350624</v>
+        <v>0.0003735891448663815</v>
       </c>
       <c r="T7">
-        <v>0.04826661310350624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1322</v>
-      </c>
-      <c r="H8">
-        <v>0.3966</v>
-      </c>
-      <c r="I8">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J8">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1389836666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.416951</v>
-      </c>
-      <c r="O8">
-        <v>0.01758007579884798</v>
-      </c>
-      <c r="P8">
-        <v>0.01758007579884798</v>
-      </c>
-      <c r="Q8">
-        <v>0.01837364073333334</v>
-      </c>
-      <c r="R8">
-        <v>0.1653627666</v>
-      </c>
-      <c r="S8">
-        <v>0.0002596857993299413</v>
-      </c>
-      <c r="T8">
-        <v>0.0002596857993299412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1322</v>
-      </c>
-      <c r="H9">
-        <v>0.3966</v>
-      </c>
-      <c r="I9">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J9">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.377589</v>
-      </c>
-      <c r="N9">
-        <v>22.132767</v>
-      </c>
-      <c r="O9">
-        <v>0.9331929207466617</v>
-      </c>
-      <c r="P9">
-        <v>0.9331929207466617</v>
-      </c>
-      <c r="Q9">
-        <v>0.9753172658000001</v>
-      </c>
-      <c r="R9">
-        <v>8.777855392200001</v>
-      </c>
-      <c r="S9">
-        <v>0.01378474998208026</v>
-      </c>
-      <c r="T9">
-        <v>0.01378474998208026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1322</v>
-      </c>
-      <c r="H10">
-        <v>0.3966</v>
-      </c>
-      <c r="I10">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J10">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.3891763333333333</v>
-      </c>
-      <c r="N10">
-        <v>1.167529</v>
-      </c>
-      <c r="O10">
-        <v>0.04922700345449031</v>
-      </c>
-      <c r="P10">
-        <v>0.04922700345449031</v>
-      </c>
-      <c r="Q10">
-        <v>0.05144911126666667</v>
-      </c>
-      <c r="R10">
-        <v>0.4630420014</v>
-      </c>
-      <c r="S10">
-        <v>0.0007271614688677735</v>
-      </c>
-      <c r="T10">
-        <v>0.0007271614688677733</v>
+        <v>0.0003735891448663816</v>
       </c>
     </row>
   </sheetData>
